--- a/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
+++ b/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\Ratkin Faction+ - 3036302713\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889B246-12FD-4118-B524-DF93C7D88B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BFAF2-B82B-4E9D-908E-3BA56F53F785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,10 +673,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>터널 침투 (군벌)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>터널 침투</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -805,10 +801,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>래키니아 문화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ofThing-&gt;the Invader</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1030,6 +1022,14 @@
   </si>
   <si>
     <t>랫킨 빈곤한 아이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>래키니아 문화(군벌)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널 침투(군벌)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1463,7 +1463,7 @@
         <v>163</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
         <v>161</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,10 +1528,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>165</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
         <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1579,10 +1579,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
         <v>175</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
         <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1803,7 +1803,7 @@
         <v>181</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1888,7 +1888,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>195</v>
@@ -1905,10 +1905,10 @@
         <v>196</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>62</v>
@@ -1925,7 +1925,7 @@
         <v>197</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1959,7 +1959,7 @@
         <v>199</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>200</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2010,7 +2010,7 @@
         <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2027,10 +2027,10 @@
         <v>202</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2061,10 +2061,10 @@
         <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,10 +2095,10 @@
         <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2112,10 +2112,10 @@
         <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2129,10 +2129,10 @@
         <v>93</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,10 +2146,10 @@
         <v>95</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2163,10 +2163,10 @@
         <v>97</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2180,10 +2180,10 @@
         <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2197,10 +2197,10 @@
         <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
         <v>106</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,10 +2248,10 @@
         <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,10 +2265,10 @@
         <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,10 +2282,10 @@
         <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2299,10 +2299,10 @@
         <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2316,10 +2316,10 @@
         <v>116</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2336,7 +2336,7 @@
         <v>119</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2350,10 +2350,10 @@
         <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2367,10 +2367,10 @@
         <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,10 +2384,10 @@
         <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,30 +2401,30 @@
         <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2438,10 +2438,10 @@
         <v>130</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>133</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
         <v>136</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2489,10 +2489,10 @@
         <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,10 +2506,10 @@
         <v>141</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2523,10 +2523,10 @@
         <v>144</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,7 +2543,7 @@
         <v>142</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,10 +2557,10 @@
         <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,7 +2577,7 @@
         <v>142</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2591,10 +2591,10 @@
         <v>152</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2605,13 +2605,13 @@
         <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,10 +2625,10 @@
         <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,10 +2642,10 @@
         <v>158</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2659,10 +2659,10 @@
         <v>160</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
+++ b/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\Ratkin Faction+ - 3036302713\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BFAF2-B82B-4E9D-908E-3BA56F53F785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F741E2-3FE7-4834-B89F-9BBB2DD9213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="294">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 자신이 무엇을 위해 싸우고 있는지 모릅니다. [PAWN_pronoun]가 가장 좋아하는 일은 매일마다 총을 끌고 다니면서 남이 남긴 설탕 조각이나 담배 꽁초를 찾아다니는 것입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin brave soldier</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -905,10 +901,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>랫킨 케이크 한 조각을 먹음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>랫킨 케이크 섭취</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -917,10 +909,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이건 다른 누군가로 만든 건데...! 왜 내가 이런 걸 먹어야 해!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Disable the tunnel commando raids by Ratkin Warlords</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -933,14 +921,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이 옵션은 랫킨 군벌 세력과 관련된 터널 습격만 비활성화합니다. 랫킨 왕국의 터널 습격을 비활성화하려면, 스크립트 편집 단계에서 해당 이벤트를 비활성화해야 합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물렁거리는 고기 위에 왁스 같은 지방이 덮여 있어... 어떻게 삼켜야 할지 모르겠어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>랫킨 고기에 지방을 코팅하여 케이크를 만듭니다. 꽤 느끼하지만, 일부 종족은 마음에 들어합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -953,26 +933,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 부름에 응하여 캠퍼스를 떠난 학도병입니다. [PAWN_pronoun]는 교실에서 편안히 앉아 공부할 수 있는 기회를 뒤로 한 채 나섰지만, 열정적이었던 [PAWN_possessive] 마음이 아직은 완전히 성숙하지 못하였기에 결국 모든 것을 포기하게 만들었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>랫킨... 정말 귀엽고 맛있다!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 아주 어렸을 때, 랫킨 노예 상인에게 납치되었습니다. 다행히도 [PAWN_pronoun]를 선택한 구매자가 비교적 자비로웠기에, [PAWN_pronoun]는 지금까지 무사히 성장할 수 있었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 다른 아이들의 돈을 빼앗고 다니던 불량한 아이였습니다. 어느 날 [PAWN_pronoun]는 광장에서 한 기사에게 붙잡힌 후 점차 그런 행동을 멈추기 시작했습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 전투에서 용감하게 싸우며, 수많은 전투에서도 기적적으로 살아남았습니다. [PAWN_pronoun]는 많은 영예를 얻었지만, 그 영예는 [PAWN_nameDef]와 [PAWN_possessive] 가족을 먹여 살리기에는 충분하지 않습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 가난하고 궁핍한 가정에서 태어났기 때문에, 아주 어린 나이임에도 집안의 가장 역할을 해야 했습니다. [PAWN_pronoun]의 평생 꿈은 매 끼니마다 따뜻한 수프를 먹는 것입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1005,18 +973,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기근으로 선택의 여지가 없게 되면 일부 랫킨들이 먹는 음식입니다. 이 케이크는 누군가의 자녀의 살이나 누군가의 아내의 지방으로 만들어질 수 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 전선에서 의료 지원 활동을 제공하는 수녀입니다. [PAWN_pronoun]는 작업을 하면서 약간의 전투 기술을 익혔지만, 부상당한 병사들을 치료하는 과정에서 마주한 피비린내 나는 장면들이 [PAWN_pronoun]에게 지울 수 없는 기억을 새겼고, 이로 인해 [PAWN_pronoun]는 폭력을 여전히 극도로 혐오하고 있습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>랫킨 왕국에서 분열되어 나온 군벌 세력으로, 전쟁에 의존해 불안정한 경제를 유지하고 있습니다.\n\n전체 수입이 전적으로 군수 산업에 의존하고 있기 때문에, 이 세력은 모든 외부인에 대해 극도로 공격적인 태도를 보입니다. 전쟁이 멈춘다는 것은, 자금의 흐름이 끊긴다는 것이므로 곧 이 군벌의 멸망을 의미했습니다.\n\n랫킨 군벌의 내부 억압도 극에 달해, 거의 모든 랫킨 시민들이 생사를 넘나들고 있습니다. 해마다 수많은 랫킨들이 가진 모든 것을 포기하고 랫킨 왕국으로 탈출하려 합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>빈곤한 아이</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1030,6 +986,54 @@
   </si>
   <si>
     <t>터널 침투(군벌)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 다른 누군가로 만든 건데...! 왜 내가 이런 걸 먹어야 해...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨 케이크를 먹음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨 왕국에서 분리된 군벌 세력으로, 오로지 전쟁에 의존하는 불안정한 경제를 유지하고 있습니다.\n\n세력의 수입이 전적으로 군수산업에 치중되어 있기 때문에, 이들은 모든 외부인들에게 극도로 공격적인 태도를 보입니다. 만약 전쟁을 할 수 없게 되어 자금의 흐름이 끊긴다면, 이것은 곧 이 군벌의 몰락을 의미했습니다.\n\n랫킨 군벌의 내부 억압도 극에 달해, 매년 생사를 넘나드는 수많은 랫킨들이 가진 모든 것을 포기하고 왕국으로 탈출을 시도하고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 전선에서 의료지원을 제공하는 수녀입니다. [PAWN_pronoun]는 작업을 하면서 약간의 전투 기술을 익혔지만, 부상당한 병사들을 치료하는 과정에서 마주한 피비린내 나는 장면들이 [PAWN_pronoun]에게 지울 수 없는 기억을 새겼고, 이로 인해 [PAWN_pronoun]는 폭력을 극도로 혐오하고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 전투에서 용감하게 싸우며, 수많은 전투에서도 기적적으로 살아남았습니다. [PAWN_pronoun]는 많은 영예를 얻었지만, [PAWN_nameDef]와 [PAWN_possessive] 가족을 먹여 살리기에는 충분하지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 아주 어렸을 적에, 랫킨 노예 상인에게 납치되었습니다. 다행히도 [PAWN_pronoun]를 선택한 구매자가 비교적 자비로웠기에, [PAWN_pronoun]는 지금까지 무사히 성장할 수 있었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기근으로 선택의 여지가 없게 되면 일부 랫킨들이 먹는 음식입니다. 이 케이크는 누군가의 자녀의 살코기나 배우자의 지방으로 만들어질 수 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물렁거리는 고기 위에 왁스 같은 게 덮여 있어... 어떻게 삼켜야 할지 모르겠어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Had a slice of ratkin cake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 옵션은 랫킨 군벌의 터널 습격만 비활성화합니다.\n\n기존의 랫킨 왕국의 터널 습격까지 비활성화하려면, 스크립트 편집 단계에서 따로 해당 이벤트를 비활성화해야 합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 부름에 응하여 캠퍼스를 떠난 학도병입니다. [PAWN_pronoun]는 교실에서 편안히 앉아 공부할 수 있는 기회를 뒤로 한 채 나섰지만, 열정적이었던 [PAWN_possessive] 마음이 아직은 성숙하지 못하였기에 결국 모든 것을 포기하게 만들었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신이 무엇을 위해 싸우고 있는지 모릅니다. [PAWN_pronoun]가 가장 좋아하는 일은 총을 끌고 다니면서 남이 남긴 과자나 담배 꽁초를 찾는 것입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1463,7 +1467,7 @@
         <v>163</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1501,7 @@
         <v>161</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1548,7 +1552,7 @@
         <v>165</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,7 +1569,7 @@
         <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1579,10 +1583,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1599,7 +1603,7 @@
         <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1650,7 +1654,7 @@
         <v>170</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,10 +1668,10 @@
         <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1698,10 +1702,10 @@
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1712,13 +1716,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1749,10 +1753,10 @@
         <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1766,10 +1770,10 @@
         <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1786,7 +1790,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1800,10 +1804,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1814,13 +1818,13 @@
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1837,7 +1841,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1848,13 +1852,13 @@
         <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1865,13 +1869,13 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1885,10 +1889,10 @@
         <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1896,19 +1900,19 @@
         <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,16 +1920,16 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1942,7 +1946,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,10 +1960,10 @@
         <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1973,10 +1977,10 @@
         <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1990,10 +1994,10 @@
         <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2010,7 +2014,7 @@
         <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2024,13 +2028,13 @@
         <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2044,10 +2048,10 @@
         <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2061,10 +2065,10 @@
         <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2078,10 +2082,10 @@
         <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,10 +2099,10 @@
         <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2112,10 +2116,10 @@
         <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2129,10 +2133,10 @@
         <v>93</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,10 +2150,10 @@
         <v>95</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2163,10 +2167,10 @@
         <v>97</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2180,10 +2184,10 @@
         <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2197,10 +2201,10 @@
         <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,10 +2218,10 @@
         <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2234,7 +2238,7 @@
         <v>106</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,10 +2252,10 @@
         <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,10 +2269,10 @@
         <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,10 +2286,10 @@
         <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2299,10 +2303,10 @@
         <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2316,10 +2320,10 @@
         <v>116</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2336,7 +2340,7 @@
         <v>119</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2350,10 +2354,10 @@
         <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2367,10 +2371,10 @@
         <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,10 +2388,10 @@
         <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,30 +2405,30 @@
         <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2438,10 +2442,10 @@
         <v>130</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2458,7 +2462,7 @@
         <v>133</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2475,7 +2479,7 @@
         <v>136</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2489,10 +2493,10 @@
         <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,10 +2510,10 @@
         <v>141</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2523,10 +2527,10 @@
         <v>144</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,7 +2547,7 @@
         <v>142</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,10 +2561,10 @@
         <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,7 +2581,7 @@
         <v>142</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2591,10 +2595,10 @@
         <v>152</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2605,13 +2609,13 @@
         <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,10 +2629,10 @@
         <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,10 +2646,10 @@
         <v>158</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2659,10 +2663,10 @@
         <v>160</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
